--- a/坡度总计.xlsx
+++ b/坡度总计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\robomaster\超电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3904F562-D645-47B2-A207-2C709076EBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED3522F-B792-4B7D-9BAF-7893193036A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>坡度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所需最大底盘功率峰值</t>
+    <t>所需底盘功率峰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,12 +63,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,12 +375,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,6 +405,9 @@
       <c r="A4">
         <v>43</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -404,6 +422,9 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/坡度总计.xlsx
+++ b/坡度总计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\robomaster\超电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED3522F-B792-4B7D-9BAF-7893193036A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABCF30-9025-477D-A6A1-322292235679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>坡度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,34 @@
   </si>
   <si>
     <t>70w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡度所属场地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯形高地第二个坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡垒/高地隧道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路区上中央高地的坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯形高地第一个坡/上公路区的坡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,59 +407,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
